--- a/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
+++ b/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T15:30:57+00:00</t>
+    <t>2024-02-20T16:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
+++ b/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T16:00:50+00:00</t>
+    <t>2024-02-21T08:17:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
+++ b/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T08:17:48+00:00</t>
+    <t>2024-02-27T09:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
+++ b/sd-card-specialty-practitionerrole/ig/StructureDefinition-ror-organization-reopening-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:40:03+00:00</t>
+    <t>2024-02-28T12:47:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
